--- a/summaries/trials/PennEssentialWorkers_Dec2020/lineages.xlsx
+++ b/summaries/trials/PennEssentialWorkers_Dec2020/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,37 +23,55 @@
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2748|Saliva|20201210</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
+    <t xml:space="preserve">VSP0529</t>
   </si>
   <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2749|Saliva|20201210</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.311</t>
+    <t xml:space="preserve">VSP0530</t>
   </si>
   <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2750|Saliva|20201210</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
+    <t xml:space="preserve">VSP0531</t>
   </si>
   <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2751|Saliva|20201210</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0532</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2752|Saliva|20201210</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0533</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2753|Saliva|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0534</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2756|Saliva|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0537</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|2757|Saliva|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0538</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|3157|Saliva|20201211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0540</t>
   </si>
 </sst>
 </file>
@@ -422,47 +440,47 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
